--- a/data/trans_bre/IP41-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP41-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 8,41</t>
+          <t>-1,76; 8,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 7,89</t>
+          <t>-2,39; 7,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,99; 7,31</t>
+          <t>-5,59; 7,71</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 9,4</t>
+          <t>-1,84; 9,45</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 8,91</t>
+          <t>-2,55; 8,56</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-6,49; 8,71</t>
+          <t>-6,06; 9,22</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,41; 1,38</t>
+          <t>-6,51; 1,37</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,28; 3,24</t>
+          <t>-6,36; 2,83</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 8,35</t>
+          <t>-2,11; 8,97</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-6,83; 1,51</t>
+          <t>-6,83; 1,5</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-6,88; 3,75</t>
+          <t>-6,99; 3,22</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 10,39</t>
+          <t>-2,45; 11,21</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-13,72; -0,79</t>
+          <t>-13,56; -0,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,42; 5,02</t>
+          <t>-6,59; 5,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,03; 4,66</t>
+          <t>-8,73; 4,64</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-14,46; -0,82</t>
+          <t>-14,34; -0,83</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,07; 5,85</t>
+          <t>-7,14; 6,18</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-10,6; 6,02</t>
+          <t>-10,48; 5,86</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 5,01</t>
+          <t>-2,88; 5,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 10,13</t>
+          <t>-1,78; 10,53</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,15; 6,2</t>
+          <t>-7,38; 6,36</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 5,54</t>
+          <t>-3,02; 6,19</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 12,51</t>
+          <t>-1,91; 13,19</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-8,13; 7,81</t>
+          <t>-8,5; 7,87</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 1,02</t>
+          <t>-3,79; 0,9</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 3,55</t>
+          <t>-1,83; 3,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 3,62</t>
+          <t>-2,69; 3,54</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 1,12</t>
+          <t>-4,05; 0,98</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 4,07</t>
+          <t>-2,04; 4,09</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 4,39</t>
+          <t>-3,15; 4,31</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">

--- a/data/trans_bre/IP41-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP41-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 8,33</t>
+          <t>-1,7; 8,24</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 7,47</t>
+          <t>-1,96; 7,35</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,59; 7,71</t>
+          <t>-5,5; 7,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 9,45</t>
+          <t>-1,74; 9,41</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 8,56</t>
+          <t>-2,1; 8,25</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-6,06; 9,22</t>
+          <t>-6,12; 8,45</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,51; 1,37</t>
+          <t>-6,41; 1,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,36; 2,83</t>
+          <t>-6,09; 3,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 8,97</t>
+          <t>-2,31; 8,72</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-6,83; 1,5</t>
+          <t>-6,8; 1,75</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-6,99; 3,22</t>
+          <t>-6,62; 3,86</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 11,21</t>
+          <t>-2,68; 10,87</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-13,56; -0,77</t>
+          <t>-12,93; -0,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,59; 5,3</t>
+          <t>-6,69; 5,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,73; 4,64</t>
+          <t>-9,43; 4,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-14,34; -0,83</t>
+          <t>-13,79; -0,54</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,14; 6,18</t>
+          <t>-7,23; 6,58</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-10,48; 5,86</t>
+          <t>-11,14; 5,22</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 5,52</t>
+          <t>-3,29; 5,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 10,53</t>
+          <t>-2,19; 10,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,38; 6,36</t>
+          <t>-7,21; 6,68</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 6,19</t>
+          <t>-3,46; 5,92</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 13,19</t>
+          <t>-2,45; 12,93</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-8,5; 7,87</t>
+          <t>-8,29; 8,22</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 0,9</t>
+          <t>-3,81; 0,97</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 3,57</t>
+          <t>-1,89; 3,82</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 3,54</t>
+          <t>-2,81; 3,35</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 0,98</t>
+          <t>-4,06; 1,06</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 4,09</t>
+          <t>-2,11; 4,4</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 4,31</t>
+          <t>-3,31; 4,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
